--- a/biology/Botanique/Brunelle_à_grandes_fleurs/Brunelle_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Brunelle_à_grandes_fleurs/Brunelle_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brunelle_%C3%A0_grandes_fleurs</t>
+          <t>Brunelle_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunella grandiflora
 La Brunelle à grandes fleurs (Prunella grandiflora ou Brunella grandiflora) est une plante herbacée vivace de la famille des Lamiacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brunelle_%C3%A0_grandes_fleurs</t>
+          <t>Brunelle_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brunelle à grande fleurs est une plante de prairies sèches de moyenne altitude. Elle préfère les sols basiques (calcaire, basalte). Elle est présente en Europe centrale et méridionale où on la retrouve le plus souvent dans des zones montagneuses (elle est classée comme étant orophyte méditerranéen). Elle est fréquente dans les Alpes, les Pyrénées, l'ouest du Massif central, le Jura ainsi que dans certains massifs montagneux d'Europe centrale (Forêt-Noire, Forêt de Bohême, Sudètes, ...). Elle peut être présente localement à plus basse altitude. Ainsi, en France, on pourra aussi la croiser sur le plateau de Langres, la Champagne, la Lorraine ou la plaine d'Alsace.
 </t>
